--- a/assets/files/CV19.xlsx
+++ b/assets/files/CV19.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -311,12 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,1998 +625,1996 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="20" max="20" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>56.281407035175882</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>19.095477386934672</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>15.075376884422111</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>8.0402010050251249</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>1.5075376884422111</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>199</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>55.555555555555557</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>24.338624338624339</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>14.285714285714286</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>5.8201058201058204</v>
       </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
+      <c r="M2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
         <v>189</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="4">
         <v>55.927835051546388</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="4">
         <v>21.649484536082475</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="4">
         <v>14.690721649484535</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="4">
         <v>6.9587628865979383</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="4">
         <v>0.77319587628865982</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="5">
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>32.113821138211385</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>32.520325203252035</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>13.414634146341463</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>20.73170731707317</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>1.2195121951219512</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>246</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>32.203389830508478</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>37.288135593220339</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>8.4745762711864412</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>21.1864406779661</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>0.84745762711864403</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>118</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>32.142857142857146</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>34.065934065934066</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>11.813186813186814</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>20.87912087912088</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="4">
         <v>1.098901098901099</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="5">
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>46.516853932584269</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>17.078651685393258</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>26.966292134831459</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>7.6404494382022472</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>1.797752808988764</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>445</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>42.798353909465021</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>16.460905349794238</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>37.44855967078189</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>2.4691358024691357</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="4">
         <v>0.82304526748971196</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="5">
         <v>243</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>45.203488372093027</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>16.86046511627907</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>30.668604651162791</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>5.8139534883720927</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>1.4534883720930232</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="5">
         <v>688</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>39.240506329113927</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>39.240506329113927</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>17.721518987341771</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>3.7974683544303796</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
         <v>79</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>52.158273381294961</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>23.021582733812949</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>19.784172661870503</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>3.5971223021582732</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="4">
         <v>1.4388489208633093</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <v>278</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>49.299719887955185</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>26.610644257703083</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>19.327731092436974</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>3.6414565826330532</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="4">
         <v>1.1204481792717087</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>40.22346368715084</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>17.318435754189945</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>26.256983240223462</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>6.1452513966480451</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>10.05586592178771</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>179</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>49.523809523809526</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>15.238095238095237</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>21.904761904761905</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>9.5238095238095237</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>3.8095238095238093</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>105</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <v>43.661971830985912</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <v>16.549295774647888</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <v>24.64788732394366</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <v>7.394366197183099</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <v>7.746478873239437</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="5">
         <v>284</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>24.226804123711339</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>7.731958762886598</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>62.886597938144327</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>1.5463917525773196</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>3.6082474226804124</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>194</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>27.230046948356808</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>3.2863849765258215</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>67.605633802816897</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>0.93896713615023475</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>0.93896713615023475</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>25.798525798525798</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>5.4054054054054053</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>65.356265356265354</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>1.2285012285012284</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>2.2113022113022112</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="5">
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>27.906976744186046</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>27.906976744186046</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>23.255813953488371</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>20.930232558139537</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
         <v>43</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>41.896024464831804</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>21.406727828746178</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>30.275229357798164</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>5.5045871559633026</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <v>0.91743119266055051</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>327</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>40.270270270270274</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="4">
         <v>22.162162162162161</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="4">
         <v>29.45945945945946</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="4">
         <v>7.2972972972972974</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="4">
         <v>0.81081081081081086</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="5">
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>42.622950819672134</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>14.344262295081966</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>34.016393442622949</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>5.7377049180327866</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>3.278688524590164</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>244</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>51.798561151079134</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>23.741007194244606</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>9.3525179856115113</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>12.23021582733813</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>2.8776978417266186</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="5">
         <v>139</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>45.95300261096606</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>17.754569190600524</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>25.065274151436032</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>8.0939947780678843</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>3.133159268929504</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>57.47126436781609</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>13.793103448275861</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>22.988505747126435</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>4.5977011494252871</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>1.1494252873563218</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>50.889679715302492</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>10.320284697508896</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>36.29893238434164</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>1.4234875444839858</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>1.0676156583629892</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="5">
         <v>281</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <v>52.445652173913047</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <v>11.141304347826088</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="4">
         <v>33.152173913043477</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="4">
         <v>2.1739130434782608</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="4">
         <v>1.0869565217391304</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="5">
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>31.155778894472363</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>2.512562814070352</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>61.306532663316581</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>5.025125628140704</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <v>199</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>27.222222222222221</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>3.8888888888888888</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>63.888888888888886</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>4.4444444444444446</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="4">
         <v>0.55555555555555558</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="5">
         <v>180</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <v>29.287598944591029</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <v>3.1662269129287597</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <v>62.532981530343008</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <v>4.7493403693931402</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="4">
         <v>0.26385224274406333</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="5">
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>76.548672566371678</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>9.2920353982300892</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>14.159292035398231</v>
       </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
         <v>226</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>66.233766233766232</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>21.428571428571427</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>11.038961038961039</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>1.2987012987012987</v>
       </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
         <v>154</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <v>72.368421052631575</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <v>14.210526315789474</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <v>12.894736842105264</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <v>0.52631578947368418</v>
       </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>45.614035087719301</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>20.17543859649123</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>15.350877192982455</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>5.2631578947368425</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>13.596491228070175</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>228</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>33.944954128440365</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>17.431192660550458</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>40.366972477064223</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>5.5045871559633026</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <v>2.7522935779816513</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>109</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <v>41.839762611275965</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <v>19.287833827893174</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <v>23.442136498516319</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <v>5.3412462908011866</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <v>10.089020771513352</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="5">
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>40.983606557377051</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>19.672131147540984</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>28.688524590163933</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>5.7377049180327866</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>4.918032786885246</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>122</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>40.637450199203187</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>9.5617529880478092</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>42.231075697211153</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>5.9760956175298805</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>1.593625498007968</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>251</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <v>40.750670241286862</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <v>12.868632707774799</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="4">
         <v>37.801608579088473</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="4">
         <v>5.8981233243967832</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <v>2.6809651474530831</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="5">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>31.25</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>52.083333333333336</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>10.416666666666666</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
         <v>6.25</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>34.131736526946106</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>55.988023952095809</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>1.7964071856287425</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>8.0838323353293422</v>
       </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
         <v>334</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <v>33.769633507853406</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <v>55.497382198952877</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <v>2.8795811518324608</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="4">
         <v>7.8534031413612562</v>
       </c>
-      <c r="S15" s="1">
-        <v>0</v>
-      </c>
-      <c r="T15" s="4">
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="5">
         <v>382</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>42.666666666666664</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>2</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>55.333333333333336</v>
       </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
         <v>150</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>47.881355932203391</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>7.2033898305084749</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>44.491525423728817</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="4">
         <v>0.42372881355932202</v>
       </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
         <v>236</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>45.854922279792746</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>5.1813471502590671</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <v>48.704663212435236</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="4">
         <v>0.25906735751295334</v>
       </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="4">
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="5">
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
         <v>35.356200527704488</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>20.844327176781004</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>29.551451187335093</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>13.984168865435356</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <v>0.26385224274406333</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>379</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>35.356200527704488</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>20.844327176781004</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>29.551451187335093</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>13.984168865435356</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <v>0.26385224274406333</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="5">
         <v>379</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>47.368421052631582</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>23.684210526315791</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>10.526315789473685</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>15.789473684210526</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <v>2.6315789473684212</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>38</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>37.536656891495603</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>39.296187683284458</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>5.2785923753665687</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>16.715542521994134</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <v>1.1730205278592376</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>341</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>38.522427440633244</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>37.730870712401057</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>5.8047493403693933</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>16.622691292875988</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>1.3192612137203166</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="5">
         <v>379</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>52.02312138728324</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>1.7341040462427746</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>46.24277456647399</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
         <v>173</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>63.934426229508198</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>2.7322404371584699</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
         <v>183</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="4">
         <v>58.146067415730336</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="4">
         <v>2.2471910112359552</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <v>39.606741573033709</v>
       </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4">
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="5">
         <v>356</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>21.875</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>34.375</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>9.375</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>31.25</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="4">
         <v>3.125</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>32</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>24.590163934426229</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>40.710382513661202</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>5.1912568306010929</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>27.595628415300546</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>1.9125683060109289</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>366</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="4">
         <v>24.371859296482413</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="4">
         <v>40.201005025125632</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <v>5.5276381909547743</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="4">
         <v>27.889447236180903</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="4">
         <v>2.0100502512562812</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="5">
         <v>398</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>51.231527093596057</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>19.704433497536947</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>21.674876847290641</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>3.9408866995073892</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>3.4482758620689653</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>203</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>55</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>16.666666666666668</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>26.111111111111111</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <v>2.2222222222222223</v>
       </c>
-      <c r="M21" s="1">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
         <v>180</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <v>53.002610966057439</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <v>18.276762402088774</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <v>23.759791122715406</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="4">
         <v>3.133159268929504</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="4">
         <v>1.8276762402088773</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>49.132947976878611</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>23.121387283236995</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>20.23121387283237</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>4.6242774566473992</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="4">
         <v>2.8901734104046244</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>173</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>49.756097560975611</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>21.463414634146343</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>21.463414634146343</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <v>2.9268292682926829</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>4.3902439024390247</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>205</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <v>49.470899470899468</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <v>22.222222222222221</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>20.899470899470899</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="4">
         <v>3.7037037037037037</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <v>3.7037037037037037</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>48.404255319148938</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>27.127659574468087</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>13.829787234042554</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>7.9787234042553195</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="4">
         <v>2.6595744680851063</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>188</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>42.564102564102562</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>23.076923076923077</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>13.333333333333334</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>15.897435897435898</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>5.1282051282051286</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>195</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>45.430809399477809</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>25.065274151436032</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>13.577023498694517</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="4">
         <v>12.010443864229766</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <v>3.9164490861618799</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>25.86750788643533</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>2.8391167192429023</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>70.977917981072551</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>0.31545741324921134</v>
       </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
         <v>317</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>16.393442622950818</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>6.557377049180328</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <v>75.409836065573771</v>
       </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
         <v>1.639344262295082</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="5">
         <v>61</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <v>24.338624338624339</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <v>3.4391534391534391</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>71.693121693121697</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="4">
         <v>0.26455026455026454</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="4">
         <v>0.26455026455026454</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>40.106951871657756</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>18.181818181818183</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>32.62032085561497</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>5.3475935828877006</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>3.7433155080213902</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>187</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="4">
         <v>47.395833333333336</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>10.9375</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>35.9375</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="4">
         <v>4.166666666666667</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="4">
         <v>1.5625</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>192</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="4">
         <v>43.799472295514512</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="4">
         <v>14.511873350923484</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>34.300791556728235</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="4">
         <v>4.7493403693931402</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="4">
         <v>2.6385224274406331</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="5">
         <v>379</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>48.954703832752614</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>28.397212543554009</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>18.292682926829269</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>3.484320557491289</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>0.87108013937282225</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>574</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="4">
         <v>31.754256106587714</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>32.124352331606218</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>14.507772020725389</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="4">
         <v>16.13619541080681</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="4">
         <v>5.4774241302738709</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>1351</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>36.883116883116884</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="4">
         <v>31.012987012987011</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>15.636363636363637</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="4">
         <v>12.363636363636363</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="4">
         <v>4.1038961038961039</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="5">
         <v>1925</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>61.53846153846154</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>30.76923076923077</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>1.5384615384615385</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>6.1538461538461542</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
         <v>130</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>58.396946564885496</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>24.427480916030536</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>11.83206106870229</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="4">
         <v>3.8167938931297711</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="4">
         <v>1.5267175572519085</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="5">
         <v>524</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="4">
         <v>59.021406727828747</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="4">
         <v>25.688073394495412</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>9.7859327217125376</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="4">
         <v>4.2813455657492359</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="4">
         <v>1.2232415902140672</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="5">
         <v>654</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>38.345864661654133</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>24.060150375939848</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>24.81203007518797</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>8.2706766917293226</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>4.511278195488722</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>133</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>47.89473684210526</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="4">
         <v>18.94736842105263</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>20</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <v>8.9473684210526319</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>4.2105263157894735</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>190</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <v>43.962848297213625</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>21.05263157894737</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>21.981424148606813</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="4">
         <v>8.6687306501547994</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <v>4.3343653250773997</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="5">
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>34.222222222222221</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>26.222222222222221</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>27.555555555555557</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>10.222222222222221</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>1.7777777777777777</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>225</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>38.016528925619838</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>16.528925619834709</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>35.537190082644628</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <v>4.9586776859504136</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="4">
         <v>4.9586776859504136</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="5">
         <v>121</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="4">
         <v>35.549132947976879</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="4">
         <v>22.832369942196532</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <v>30.346820809248555</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="4">
         <v>8.3815028901734099</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="4">
         <v>2.8901734104046244</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="5">
         <v>346</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>42.58064516129032</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>11.612903225806452</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>40</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>1.935483870967742</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <v>3.870967741935484</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>155</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>58.00865800865801</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4">
         <v>19.480519480519479</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>14.718614718614718</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <v>4.7619047619047619</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>3.0303030303030303</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>231</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="4">
         <v>51.813471502590673</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>16.321243523316063</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <v>24.870466321243523</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="4">
         <v>3.6269430051813472</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="4">
         <v>3.3678756476683938</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="5">
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>32.432432432432435</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>16.216216216216218</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>48.648648648648646</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>1.8018018018018018</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="4">
         <v>0.90090090090090091</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>111</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>50.367647058823529</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>21.691176470588236</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>13.602941176470589</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <v>8.4558823529411757</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>5.882352941176471</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>272</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="4">
         <v>45.16971279373368</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>20.104438642297652</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <v>23.759791122715406</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="4">
         <v>6.5274151436031334</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="4">
         <v>4.438642297650131</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>60</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>13.333333333333334</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>20</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
         <v>15</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>46.388888888888886</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="4">
         <v>12.222222222222221</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <v>5.5555555555555554</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>2.5</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>360</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <v>46.93333333333333</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>12.266666666666667</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>32.799999999999997</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="4">
         <v>5.6</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <v>2.4</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="5">
         <v>375</v>
       </c>
     </row>
